--- a/beheer/Template_NLCS_Lijnkleuren.xlsx
+++ b/beheer/Template_NLCS_Lijnkleuren.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Projects\digiGO\(EP1340) DigiGO - NLCS uitbreidingen (grootboekrekening 7051)\Deliverables\NLCS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B58E1DA-739E-4491-9D7A-99249ACC6F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CF7589-A75D-4F55-908D-E1DCC4373CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{42B839FA-3329-4254-A897-E085426CC821}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{42B839FA-3329-4254-A897-E085426CC821}"/>
   </bookViews>
   <sheets>
     <sheet name="Lijnkleuren" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,6 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={085FDBEB-4681-46FC-AA8E-BCEA661A273A}</author>
     <author>tc={50AE3359-1E0F-427B-A74D-A02F8720BDB7}</author>
     <author>tc={FF36687A-A5A2-4275-9940-1223D09EC532}</author>
     <author>tc={BDE978E9-CEFD-46E4-9E6E-9A9D2C717108}</author>
@@ -48,19 +47,7 @@
     <author>tc={D295B36F-D763-4A79-83A5-C0F4070D2F89}</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{085FDBEB-4681-46FC-AA8E-BCEA661A273A}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Verplicht: NEE
-Inputtype: integer (hele getallen)
-Doel: Een code om de lijnkleur aan te duiden. Vanwege URIs niet langer verplicht
-Voorbeeld:  1
-</t>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{50AE3359-1E0F-427B-A74D-A02F8720BDB7}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{50AE3359-1E0F-427B-A74D-A02F8720BDB7}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -71,7 +58,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{FF36687A-A5A2-4275-9940-1223D09EC532}">
+    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{FF36687A-A5A2-4275-9940-1223D09EC532}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -83,7 +70,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{BDE978E9-CEFD-46E4-9E6E-9A9D2C717108}">
+    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{BDE978E9-CEFD-46E4-9E6E-9A9D2C717108}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -93,7 +80,7 @@
 Voorbeeld:  #FF0000</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="4" shapeId="0" xr:uid="{B9D2384A-A87A-47CA-98BD-834F20CB48A3}">
+    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{B9D2384A-A87A-47CA-98BD-834F20CB48A3}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -104,7 +91,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="F1" authorId="5" shapeId="0" xr:uid="{C649A5CB-597E-4929-BCB3-DEAFDBC86BAB}">
+    <comment ref="E1" authorId="4" shapeId="0" xr:uid="{C649A5CB-597E-4929-BCB3-DEAFDBC86BAB}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -115,7 +102,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="G1" authorId="6" shapeId="0" xr:uid="{8CCD5F5D-6D6C-45D7-9CE5-1A9B59834B0C}">
+    <comment ref="F1" authorId="5" shapeId="0" xr:uid="{8CCD5F5D-6D6C-45D7-9CE5-1A9B59834B0C}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -126,7 +113,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="H1" authorId="7" shapeId="0" xr:uid="{D295B36F-D763-4A79-83A5-C0F4070D2F89}">
+    <comment ref="G1" authorId="6" shapeId="0" xr:uid="{D295B36F-D763-4A79-83A5-C0F4070D2F89}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -142,10 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>fase</t>
   </si>
@@ -172,7 +156,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,12 +171,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -572,50 +550,43 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2024-08-01T06:34:58.78" personId="{730CA36A-FC6B-4F63-8BEE-8DCB02BE4188}" id="{085FDBEB-4681-46FC-AA8E-BCEA661A273A}">
-    <text xml:space="preserve">Verplicht: NEE
-Inputtype: integer (hele getallen)
-Doel: Een code om de lijnkleur aan te duiden. Vanwege URIs niet langer verplicht
-Voorbeeld:  1
-</text>
-  </threadedComment>
-  <threadedComment ref="B1" dT="2024-08-01T06:36:24.00" personId="{730CA36A-FC6B-4F63-8BEE-8DCB02BE4188}" id="{50AE3359-1E0F-427B-A74D-A02F8720BDB7}">
+  <threadedComment ref="A1" dT="2024-08-01T06:36:24.00" personId="{730CA36A-FC6B-4F63-8BEE-8DCB02BE4188}" id="{50AE3359-1E0F-427B-A74D-A02F8720BDB7}">
     <text xml:space="preserve">Verplicht: JA
 Inputtype: integer (hele getallen)
 Voorbeeld:  10
 </text>
   </threadedComment>
-  <threadedComment ref="C1" dT="2024-08-01T06:37:26.34" personId="{730CA36A-FC6B-4F63-8BEE-8DCB02BE4188}" id="{FF36687A-A5A2-4275-9940-1223D09EC532}">
+  <threadedComment ref="B1" dT="2024-08-01T06:37:26.34" personId="{730CA36A-FC6B-4F63-8BEE-8DCB02BE4188}" id="{FF36687A-A5A2-4275-9940-1223D09EC532}">
     <text xml:space="preserve">Verplicht: JA
 Inputtype: string (tekst)
 Doel: de naam aanduiden. 
 Voorbeeld:  100
 </text>
   </threadedComment>
-  <threadedComment ref="D1" dT="2024-08-01T06:37:55.14" personId="{730CA36A-FC6B-4F63-8BEE-8DCB02BE4188}" id="{BDE978E9-CEFD-46E4-9E6E-9A9D2C717108}">
+  <threadedComment ref="C1" dT="2024-08-01T06:37:55.14" personId="{730CA36A-FC6B-4F63-8BEE-8DCB02BE4188}" id="{BDE978E9-CEFD-46E4-9E6E-9A9D2C717108}">
     <text>Verplicht: JA
 Inputtype: string (tekst)
 Voorbeeld:  #FF0000</text>
   </threadedComment>
-  <threadedComment ref="E1" dT="2024-08-01T06:38:16.62" personId="{730CA36A-FC6B-4F63-8BEE-8DCB02BE4188}" id="{B9D2384A-A87A-47CA-98BD-834F20CB48A3}">
+  <threadedComment ref="D1" dT="2024-08-01T06:38:16.62" personId="{730CA36A-FC6B-4F63-8BEE-8DCB02BE4188}" id="{B9D2384A-A87A-47CA-98BD-834F20CB48A3}">
     <text xml:space="preserve">Verplicht: JA
 Inputtype: integer (hele getallen)
 Voorbeeld:  255
 </text>
   </threadedComment>
-  <threadedComment ref="F1" dT="2024-08-01T06:38:29.72" personId="{730CA36A-FC6B-4F63-8BEE-8DCB02BE4188}" id="{C649A5CB-597E-4929-BCB3-DEAFDBC86BAB}">
+  <threadedComment ref="E1" dT="2024-08-01T06:38:29.72" personId="{730CA36A-FC6B-4F63-8BEE-8DCB02BE4188}" id="{C649A5CB-597E-4929-BCB3-DEAFDBC86BAB}">
     <text xml:space="preserve">Verplicht: JA
 Inputtype: integer (hele getallen)
 Voorbeeld:  255
 </text>
   </threadedComment>
-  <threadedComment ref="G1" dT="2024-08-01T06:38:33.68" personId="{730CA36A-FC6B-4F63-8BEE-8DCB02BE4188}" id="{8CCD5F5D-6D6C-45D7-9CE5-1A9B59834B0C}">
+  <threadedComment ref="F1" dT="2024-08-01T06:38:33.68" personId="{730CA36A-FC6B-4F63-8BEE-8DCB02BE4188}" id="{8CCD5F5D-6D6C-45D7-9CE5-1A9B59834B0C}">
     <text xml:space="preserve">Verplicht: JA
 Inputtype: integer (hele getallen)
 Voorbeeld:  255
 </text>
   </threadedComment>
-  <threadedComment ref="H1" dT="2024-08-01T06:38:58.30" personId="{730CA36A-FC6B-4F63-8BEE-8DCB02BE4188}" id="{D295B36F-D763-4A79-83A5-C0F4070D2F89}">
+  <threadedComment ref="G1" dT="2024-08-01T06:38:58.30" personId="{730CA36A-FC6B-4F63-8BEE-8DCB02BE4188}" id="{D295B36F-D763-4A79-83A5-C0F4070D2F89}">
     <text xml:space="preserve">Verplicht: NEE
 Inputtype: string (tekst)
 Voorbeeld:  AZG
@@ -626,16 +597,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF8BE5F-6EA6-4E0E-87BD-E5ECB2897B9F}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -653,11 +624,8 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
